--- a/htdocs/static/excel.xlsx
+++ b/htdocs/static/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sites\ShirneCMS-branch\veget\htdocs\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FDECE5-22F3-4686-B275-E2983D03EA50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C10612-3A23-4152-9323-0E47E35382E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{C1153C1B-5D2D-45F8-8FCA-093ABC41C721}"/>
+    <workbookView xWindow="6960" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{C1153C1B-5D2D-45F8-8FCA-093ABC41C721}"/>
   </bookViews>
   <sheets>
     <sheet name="客户资料范例" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="71">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,61 @@
   </si>
   <si>
     <t>供应商简称b</t>
+  </si>
+  <si>
+    <t>品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编号</t>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计价方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红茄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -597,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAE9F2B-411B-4549-BE08-917F17E9F1B4}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1140,15 +1195,111 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3741B80A-9E87-4BF1-95F0-29209C9352AB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/htdocs/static/excel.xlsx
+++ b/htdocs/static/excel.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sites\ShirneCMS-branch\veget\htdocs\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C10612-3A23-4152-9323-0E47E35382E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54BAA5A-0175-451B-AE44-1283F3CC63BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{C1153C1B-5D2D-45F8-8FCA-093ABC41C721}"/>
+    <workbookView xWindow="1305" yWindow="2115" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{C1153C1B-5D2D-45F8-8FCA-093ABC41C721}"/>
   </bookViews>
   <sheets>
     <sheet name="客户资料范例" sheetId="1" r:id="rId1"/>
     <sheet name="供应商资料范例" sheetId="2" r:id="rId2"/>
     <sheet name="商品资料范例" sheetId="3" r:id="rId3"/>
+    <sheet name="单个订单导入资料范例" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="86">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +287,52 @@
   </si>
   <si>
     <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港 发 蔬 菜 有 限 公 司</t>
+  </si>
+  <si>
+    <t>出 货 清 单（霞姐）</t>
+  </si>
+  <si>
+    <t>日期：2019年4月8日到货</t>
+  </si>
+  <si>
+    <t>品种</t>
+  </si>
+  <si>
+    <t>件数</t>
+  </si>
+  <si>
+    <t>总重量（司码）</t>
+  </si>
+  <si>
+    <t>单价港币</t>
+  </si>
+  <si>
+    <t>金额港币</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>青仔</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>菜心仔</t>
+  </si>
+  <si>
+    <t>白心苗</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>备注：单个订单导入只导入品种信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +340,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +360,58 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -318,7 +421,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -326,19 +429,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2 2 2 2" xfId="1" xr:uid="{2BF093D5-3035-4F2C-B54A-DAA56A9B4209}"/>
+    <cellStyle name="常规 5" xfId="2" xr:uid="{527580C3-FB02-4CBE-BF90-9092BD674453}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1197,7 +1440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3741B80A-9E87-4BF1-95F0-29209C9352AB}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1302,4 +1545,183 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7D7E4E-5E8D-4DE0-A180-644DEC56811A}">
+  <dimension ref="B2:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="15">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="10">
+        <f>20*3</f>
+        <v>60</v>
+      </c>
+      <c r="F6" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="G6" s="17">
+        <f>E6*F6</f>
+        <v>330</v>
+      </c>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="2:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="10">
+        <f>20*6</f>
+        <v>120</v>
+      </c>
+      <c r="F7" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="G7" s="17">
+        <f>E7*F7</f>
+        <v>660</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="10">
+        <f>20*6</f>
+        <v>120</v>
+      </c>
+      <c r="F8" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="G8" s="17">
+        <f>E8*F8</f>
+        <v>660</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="18">
+        <f>SUM(C6:C8)</f>
+        <v>15</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="20">
+        <f>SUM(G6:G8)</f>
+        <v>1650</v>
+      </c>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="2:8" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="B10" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B10:H10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>